--- a/dcomtestcasegeneration/Document/Database_template.xlsx
+++ b/dcomtestcasegeneration/Document/Database_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuc81hc\Documents\MyTasks\TOOL\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00475CFD-FB39-4739-99B2-343E323372B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F08E5-958E-4329-A3CC-56F86C1624A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="1560" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,14 +2057,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2574,14 +2573,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3091,14 +3089,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3634,7 +3631,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4181,7 +4178,7 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4667,14 +4664,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5146,17 +5142,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5677,35 +5669,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
@@ -5722,10 +5692,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5749,11 +5719,12 @@
     <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
     <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="27" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -5783,8 +5754,12 @@
         <v>87</v>
       </c>
       <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -5838,8 +5813,14 @@
       <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -5892,8 +5873,14 @@
       <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>99</v>
       </c>
@@ -5946,8 +5933,14 @@
       <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -5989,8 +5982,14 @@
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>101</v>
       </c>
@@ -6033,7 +6032,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>102</v>
       </c>
@@ -6074,7 +6073,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
@@ -6115,7 +6114,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -6156,7 +6155,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>105</v>
       </c>
@@ -6197,7 +6196,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -6238,7 +6237,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>107</v>
       </c>
@@ -6277,7 +6276,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
@@ -6316,7 +6315,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>109</v>
       </c>
@@ -6355,7 +6354,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -6396,7 +6395,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>111</v>
       </c>
@@ -6560,10 +6559,6 @@
       <c r="J20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
@@ -6593,12 +6588,6 @@
       <c r="J21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -6628,12 +6617,6 @@
       <c r="J22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -6663,12 +6646,6 @@
       <c r="J23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -6696,12 +6673,6 @@
       <c r="J24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
@@ -7068,12 +7039,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7084,10 +7055,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7116,7 +7087,7 @@
     <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -7147,8 +7118,12 @@
         <v>87</v>
       </c>
       <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -7205,8 +7180,14 @@
       <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -7262,8 +7243,14 @@
       <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>207</v>
       </c>
@@ -7319,8 +7306,14 @@
       <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>207</v>
       </c>
@@ -7365,8 +7358,14 @@
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>209</v>
       </c>
@@ -7412,7 +7411,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>207</v>
       </c>
@@ -7456,7 +7455,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>213</v>
       </c>
@@ -7500,7 +7499,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>216</v>
       </c>
@@ -7544,7 +7543,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>218</v>
       </c>
@@ -7588,7 +7587,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>220</v>
       </c>
@@ -7632,7 +7631,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>220</v>
       </c>
@@ -7676,7 +7675,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>220</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7744,7 +7743,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -7768,7 +7767,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -7863,10 +7862,6 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="M21" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
@@ -7879,12 +7874,6 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="M22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
@@ -7897,12 +7886,6 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="M23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
@@ -7915,12 +7898,6 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="M24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
@@ -7933,12 +7910,6 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="M25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
@@ -8094,12 +8065,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8631,14 +8602,13 @@
       <c r="U17" s="7"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
